--- a/tests/fixtures/ddict1.xlsx
+++ b/tests/fixtures/ddict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CCE0A2-34CE-4368-8EB9-4BE149BDD39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74E67-3515-4FFB-9D50-D0883B276E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>VARCHAR(20)</t>
   </si>
   <si>
-    <t>table_nm</t>
-  </si>
-  <si>
     <t>entity_raw</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>pertype_raw</t>
   </si>
   <si>
-    <t>is_skipped</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   </si>
   <si>
     <t>cat</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>skipped</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,19 +591,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -629,29 +629,29 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
       <c r="J2" t="b">
         <f>TRUE()</f>
@@ -660,26 +660,26 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="b">
         <f>TRUE()</f>
@@ -688,26 +688,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="b">
         <f>TRUE()</f>
@@ -716,26 +716,26 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="b">
         <f>TRUE()</f>
@@ -744,26 +744,26 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="b">
         <f>TRUE()</f>
@@ -772,7 +772,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -803,29 +803,29 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="b">
         <f>TRUE()</f>
@@ -834,29 +834,29 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="b">
         <f>TRUE()</f>
@@ -865,7 +865,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -875,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="b">
         <f>TRUE()</f>
@@ -896,29 +896,29 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="b">
         <f>TRUE()</f>
@@ -927,29 +927,29 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="b">
         <f>TRUE()</f>
@@ -958,29 +958,29 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="b">
         <f>TRUE()</f>
@@ -989,26 +989,26 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
       </c>
       <c r="J14" t="b">
         <f>TRUE()</f>
@@ -1017,26 +1017,26 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" t="b">
         <f>TRUE()</f>
@@ -1045,26 +1045,26 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" t="b">
         <f>TRUE()</f>
@@ -1073,26 +1073,26 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" t="b">
         <f>TRUE()</f>
@@ -1101,29 +1101,29 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="b">
         <f>TRUE()</f>
@@ -1132,26 +1132,26 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" t="b">
         <f>TRUE()</f>
@@ -1160,26 +1160,26 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="b">
         <f>TRUE()</f>

--- a/tests/fixtures/ddict1.xlsx
+++ b/tests/fixtures/ddict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74E67-3515-4FFB-9D50-D0883B276E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA166B8-9069-4040-B165-1B79889A082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>dtype</t>
-  </si>
-  <si>
-    <t>activ</t>
   </si>
   <si>
     <t>desc</t>
@@ -568,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,26 +581,24 @@
     <col min="4" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="8" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -623,571 +618,492 @@
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H18" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
       </c>
       <c r="C19" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/fixtures/ddict1.xlsx
+++ b/tests/fixtures/ddict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA166B8-9069-4040-B165-1B79889A082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB159C7-65E9-4FF5-8121-820D2C801043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>ts</t>
   </si>
   <si>
-    <t>meas</t>
-  </si>
-  <si>
     <t>cat</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>skipped</t>
+  </si>
+  <si>
+    <t>meas,ts</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +586,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>42</v>
@@ -688,10 +688,10 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>

--- a/tests/fixtures/ddict1.xlsx
+++ b/tests/fixtures/ddict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB159C7-65E9-4FF5-8121-820D2C801043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94990F8A-030C-4364-9928-17BF791140E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>meas,ts</t>
+  </si>
+  <si>
+    <t>_na</t>
+  </si>
+  <si>
+    <t>LineGeom</t>
+  </si>
+  <si>
+    <t>size=2,shape=dash</t>
+  </si>
+  <si>
+    <t>size=2</t>
   </si>
 </sst>
 </file>
@@ -565,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,9 +594,10 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -618,8 +631,11 @@
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -639,14 +655,26 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -669,8 +697,11 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -693,8 +724,11 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -718,7 +752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -742,7 +776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -769,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -796,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -823,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -850,7 +884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -877,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -904,7 +938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -931,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -955,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -979,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>

--- a/tests/fixtures/ddict1.xlsx
+++ b/tests/fixtures/ddict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94990F8A-030C-4364-9928-17BF791140E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2796A83-3DD2-4ED1-8BB3-691CC518A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>dtype</t>
-  </si>
-  <si>
-    <t>desc</t>
   </si>
   <si>
     <t>note</t>
@@ -240,27 +237,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -272,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -577,41 +559,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -629,515 +608,509 @@
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="H15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/fixtures/ddict1.xlsx
+++ b/tests/fixtures/ddict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2796A83-3DD2-4ED1-8BB3-691CC518A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4850B93F-C952-4030-A3FA-5173F02EE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -565,7 +565,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
